--- a/biology/Médecine/Sinapisme/Sinapisme.xlsx
+++ b/biology/Médecine/Sinapisme/Sinapisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinapisme est un cataplasme à la farine de moutarde. Nécessitant un temps de préparation moindre, il est utilisé en application sur le haut de la poitrine afin de dégager les bronches.
-Il est mentionné dans les œuvres des latins Végèce et Caelius Aurelianus au Ve siècle[1], il a cessé d'être prescrit dans le courant du XXe siècle et n'est plus utilisé que comme remède traditionnel[2].
+Il est mentionné dans les œuvres des latins Végèce et Caelius Aurelianus au Ve siècle, il a cessé d'être prescrit dans le courant du XXe siècle et n'est plus utilisé que comme remède traditionnel.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une réaction de la farine de moutarde humide produit de l'isothiocyanate d'allyle, qui est absorbé à travers la peau[2]. Celui-ci produit de la chaleur et fonctionne comme un révulsif en stimulant les terminaisons nerveuses superficielles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une réaction de la farine de moutarde humide produit de l'isothiocyanate d'allyle, qui est absorbé à travers la peau. Celui-ci produit de la chaleur et fonctionne comme un révulsif en stimulant les terminaisons nerveuses superficielles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'il est appliqué trop chaud ou laissé trop longtemps, le sinapisme peut provoquer des brûlures[4]. Les vapeurs d'isothiocyanate d'allyle peuvent provoquer des nausées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'il est appliqué trop chaud ou laissé trop longtemps, le sinapisme peut provoquer des brûlures. Les vapeurs d'isothiocyanate d'allyle peuvent provoquer des nausées.
 </t>
         </is>
       </c>
